--- a/results/skates/M_species_tables_full_skates.xlsx
+++ b/results/skates/M_species_tables_full_skates.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F226"/>
+  <dimension ref="A1:F250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,7 +641,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.415</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>AFSC max age</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.415</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AFSC max age</t>
+          <t>AFSC mean top 5</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.444</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AFSC mean top 5</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -759,29 +759,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.450</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Zeiner and Wolf 1993</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>0.154</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>Maurer 2009, overall</t>
         </is>
       </c>
     </row>
@@ -823,29 +823,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.154</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Maurer 2009, overall</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.169</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>AFSC max age</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.249</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>AFSC mean top 5</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.300</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AFSC max age</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
@@ -951,17 +951,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.225</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AFSC mean top 5</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.300</t>
+          <t>0.270</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1015,17 +1015,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>0.245</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Gertseva 2019</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.270</t>
+          <t>0.284</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1074,34 +1074,34 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>GSI</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gertseva 2019</t>
+          <t>Thompson 2005</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1111,29 +1111,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.284</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1143,29 +1143,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.245</t>
+          <t>0.386</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1175,29 +1175,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.235</t>
+          <t>0.180</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Thompson 2005, north CA</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1207,29 +1207,29 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.338</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Thompson 2005, south CA</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1239,24 +1239,24 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>Winton 2013</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1266,34 +1266,34 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GSI</t>
+          <t>Max age (y)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.318</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>Davis 2006</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1303,24 +1303,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.318</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Perez 2010</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1335,24 +1335,24 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.386</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1367,24 +1367,24 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.180</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1399,24 +1399,24 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.164</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1431,88 +1431,88 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.146</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Winton 2013</t>
+          <t>Ainsley 2011</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>144.6 / 0.087</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.318</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Matta and Gunderson 2007</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sandpaper skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>162.1 / 0.130</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.318</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>172.6 / 0.110</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1537,78 +1537,78 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>160.0 / 0.110</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.169</t>
+          <t>0.154</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>138.2 / 0.150</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.202</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>whitebrow skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1618,29 +1618,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Max age (y)</t>
+          <t>VBGF Linf (cm) / k (cm-1)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>104.9 / 0.072</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>alaska skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1655,29 +1655,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>144.6 / 0.087</t>
+          <t>104.9 / 0.070</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.127</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1687,29 +1687,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>162.1 / 0.130</t>
+          <t>114.4 / 0.061</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1719,29 +1719,29 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>172.6 / 0.110</t>
+          <t>114.4 / 0.060</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1751,29 +1751,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>160.0 / 0.110</t>
+          <t>151.1 / 0.060</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.154</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1783,29 +1783,29 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>138.2 / 0.150</t>
+          <t>293.5 / 0.040</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.202</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1815,29 +1815,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>104.9 / 0.072</t>
+          <t>293.4 / 0.040</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1847,29 +1847,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>104.9 / 0.070</t>
+          <t>247.5 / 0.080</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1879,24 +1879,24 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>114.4 / 0.061</t>
+          <t>132.0 / 0.042</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1911,29 +1911,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>114.4 / 0.060</t>
+          <t>251.0 / 0.040</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>293.5 / 0.040</t>
+          <t>234.1 / 0.037</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1975,29 +1975,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>719.8 / 0.020</t>
+          <t>221.0 / 0.040</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2007,29 +2007,29 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>151.1 / 0.060</t>
+          <t>210.0 / 0.040</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2039,29 +2039,29 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>293.5 / 0.040</t>
+          <t>85.4 / 0.111</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.190</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2071,29 +2071,29 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>293.4 / 0.040</t>
+          <t>78.1 / 0.132</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.223</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2103,24 +2103,24 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>247.5 / 0.080</t>
+          <t>1050.6 / 0.064</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2135,29 +2135,29 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>132.0 / 0.042</t>
+          <t>1323.7 / 0.031</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2167,29 +2167,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>137.2 / 0.060</t>
+          <t>1192.0 / 0.038</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2199,29 +2199,29 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>251.0 / 0.040</t>
+          <t>112.1 / 0.060</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Davis 2006</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2231,29 +2231,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>234.1 / 0.037</t>
+          <t>55.8 / 0.210</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.349</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Perez 2010</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2263,29 +2263,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>221.0 / 0.040</t>
+          <t>169.6 / 0.020</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.066</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2295,29 +2295,29 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>210.0 / 0.040</t>
+          <t>169.6 / 0.026</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.053</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2327,29 +2327,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>180.9 / 0.051</t>
+          <t>155.6 / 0.036</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.085</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2359,24 +2359,24 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>104.7 / 0.160</t>
+          <t>171.9 / 0.016</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>Ainsley 2011</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2386,29 +2386,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>85.4 / 0.111</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.190</t>
+          <t>0.159</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Matta and Gunderson 2007</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2418,61 +2418,61 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>78.1 / 0.132</t>
+          <t>10.2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.223</t>
+          <t>0.157</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1050.6 / 0.064</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2482,29 +2482,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1323.7 / 0.031</t>
+          <t>21.1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Maurer 2009, histo</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2514,125 +2514,125 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1192.0 / 0.038</t>
+          <t>17.5</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.104</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>112.1 / 0.060</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sandpaper skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>55.8 / 0.210</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>169.6 / 0.020</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2642,29 +2642,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>169.6 / 0.026</t>
+          <t>9.1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.170</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2674,61 +2674,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>155.6 / 0.036</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.069</t>
+          <t>0.079</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2013</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>whitebrow skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>VBGF Linf (cm) / k (cm-1)</t>
+          <t>Age at Maturity (yr)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>171.9 / 0.016</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Davis 2006</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>alaska skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2743,24 +2743,24 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.159</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2775,29 +2775,29 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.157</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2807,24 +2807,24 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.186</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2839,24 +2839,24 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Maurer 2009, histo</t>
+          <t>Maurer 2009</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2871,216 +2871,186 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Ainsley 2011</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>13.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>13.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>12.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>9.1</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.170</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>24.7</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Winton 2013</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>14.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3090,157 +3060,132 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>26.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>22.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>26.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>22.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>whitebrow skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Age at Maturity (yr)</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>24.0</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>alaska skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3250,157 +3195,132 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>alaska skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.130</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>alaska skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0.139</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>alaska skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.087</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Matta and Gunderson 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0.228</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3410,157 +3330,132 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.195</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3570,189 +3465,159 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0.130</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ebert et al. 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>0.150</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0.263</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>0.150</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>0.225</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3762,125 +3627,105 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>0.176</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>0.150</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>0.110</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.186</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>aleutian skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>0.150</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>0.197</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Haas 2011</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3890,157 +3735,132 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>0.126</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>0.070</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>0.070</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -4050,189 +3870,159 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>0.070</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>0.072</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.144</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>0.070</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>0.061</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>0.060</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>0.061</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>0.092</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4242,253 +4032,213 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>0.060</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>0.061</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>0.098</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>sandpaper skate</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>0.060</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.136</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>0.061</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>0.135</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ainsley 2009</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>bering skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>0.060</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Ainsley 2014</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>0.020</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whiteblotched skate</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>0.060</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4498,162 +4248,137 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>0.040</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>multi_region</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>0.020</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>whitebrow skate</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>WC</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>0.060</t>
+          <t>species name</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4663,29 +4388,29 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.153</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Matta and Gunderson 2007</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4695,29 +4420,29 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Matta and Gunderson 2007</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4727,29 +4452,29 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.139</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Matta and Gunderson 2007</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>alaska skate</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4759,29 +4484,29 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.087</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Matta and Gunderson 2007</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4791,29 +4516,29 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.228</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4823,29 +4548,29 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4855,29 +4580,29 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.195</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4887,29 +4612,29 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4919,29 +4644,29 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.208</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>King 2010, GROTAG</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4951,29 +4676,29 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.176</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>King 2010, Fabens</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4983,29 +4708,29 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2006</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5015,24 +4740,24 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>McFarlane et al. 2010</t>
+          <t>Ebert et al. 2007</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -5047,24 +4772,24 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -5079,24 +4804,24 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>0.263</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5111,24 +4836,24 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>big skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -5143,29 +4868,29 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.225</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5175,29 +4900,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>0.073</t>
+          <t>0.176</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5207,29 +4932,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.240</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5239,29 +4964,29 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.110</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>commander skate</t>
+          <t>aleutian skate</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5271,29 +4996,29 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.197</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Maurer 2009, gross</t>
+          <t>Haas 2011</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5303,29 +5028,29 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.126</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5335,29 +5060,29 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.123</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5367,29 +5092,29 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.108</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5399,29 +5124,29 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5431,29 +5156,29 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.115</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5463,29 +5188,29 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>0.065</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5495,29 +5220,29 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5527,24 +5252,24 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5559,24 +5284,24 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.107</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5591,24 +5316,24 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>0.059</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5623,24 +5348,24 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.092</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5655,29 +5380,29 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>0.109</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Gburski 2007</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5687,29 +5412,29 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5719,29 +5444,29 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5751,29 +5476,29 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.135</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2009</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>bering skate</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>GOA, BC</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5783,29 +5508,29 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>Ainsley 2014</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5815,29 +5540,29 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.105</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5847,29 +5572,29 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5879,29 +5604,29 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>0.280</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5911,29 +5636,29 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5943,29 +5668,29 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5975,29 +5700,29 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>0.240</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6007,29 +5732,29 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6039,29 +5764,29 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>0.082</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6071,29 +5796,29 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>0.256</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6103,29 +5828,29 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Arrington 2020</t>
+          <t>King 2010, Fabens</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6135,29 +5860,29 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Thompson 2005</t>
+          <t>McFarlane et al. 2006</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>longnose skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6167,29 +5892,29 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.160</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>0.202</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Zeiner and Wolf 1993</t>
+          <t>McFarlane et al. 2010</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6199,29 +5924,29 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>0.194</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6231,29 +5956,29 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>0.232</t>
+          <t>0.119</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -6263,29 +5988,29 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.127</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>big skate</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6295,24 +6020,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>0.199</t>
+          <t>0.151</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6327,24 +6052,24 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>0.177</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6359,24 +6084,24 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>0.212</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6391,24 +6116,24 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>mud skate</t>
+          <t>commander skate</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6423,29 +6148,29 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>0.187</t>
+          <t>0.115</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Ebert et al. 2009</t>
+          <t>Maurer 2009, gross</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6455,29 +6180,29 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>0.112</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6487,29 +6212,29 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.065</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6519,29 +6244,29 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6551,29 +6276,29 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.055</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6583,29 +6308,29 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6615,29 +6340,29 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6647,29 +6372,29 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>0.102</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6679,29 +6404,29 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Gburski 2007</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6711,29 +6436,29 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6743,29 +6468,29 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>0.137</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Winton 2011 sectioning</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6775,29 +6500,29 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Winton 2011 histology</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>GOA, BC</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6807,24 +6532,24 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>0.110</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Winton 2011</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -6839,24 +6564,24 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>0.105</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6871,24 +6596,24 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
           <t>0.060</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>0.090</t>
-        </is>
-      </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6903,24 +6628,24 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>0.096</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>roughtail skate</t>
+          <t>longnose skate</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -6935,29 +6660,29 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Davis 2006</t>
+          <t>Arrington 2020</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sandpaper skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6967,29 +6692,29 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>0.368</t>
+          <t>0.194</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>sandpaper skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6999,29 +6724,29 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>0.315</t>
+          <t>0.232</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>sandpaper skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -7031,29 +6756,29 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>0.336</t>
+          <t>0.166</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sandpaper skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>WC</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7063,24 +6788,24 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>0.226</t>
+          <t>0.199</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Perez 2010</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7095,24 +6820,24 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.177</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -7127,24 +6852,24 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.212</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -7159,24 +6884,24 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.173</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>mud skate</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7191,24 +6916,24 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.187</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Ebert et al. 2009</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -7223,24 +6948,24 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7255,7 +6980,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7265,14 +6990,14 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7287,24 +7012,24 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7319,24 +7044,24 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7351,24 +7076,24 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>0.058</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7383,24 +7108,24 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7415,24 +7140,24 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.102</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>whiteblotched skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7447,24 +7172,24 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>0.108</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Maurer 2009</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>whitebrow skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7479,24 +7204,24 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Winton 2011</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>whitebrow skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7511,24 +7236,24 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.137</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Winton 2011 sectioning</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>whitebrow skate</t>
+          <t>roughtail skate</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7543,47 +7268,815 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Ainsley 2011</t>
+          <t>Winton 2011 histology</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>0.110</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Winton 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>0.105</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>0.090</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>0.096</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>roughtail skate</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Davis 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>0.368</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>0.315</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>0.336</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>sandpaper skate</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>0.210</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>0.226</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Perez 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>0.046</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>0.063</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>0.040</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>0.054</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>0.042</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>0.058</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.020</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>0.095</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>whiteblotched skate</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>0.108</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Maurer 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
           <t>whitebrow skate</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>VBGF k (cm-1)</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
         <is>
           <t>0.016</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Ainsley 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>0.024</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Ainsley 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>0.026</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Ainsley 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>whitebrow skate</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>VBGF k (cm-1)</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
         <is>
           <t>0.077</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>Ainsley 2011</t>
         </is>
